--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -121,10 +121,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>hand</t>
@@ -1301,25 +1301,25 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6866952789699571</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L21">
         <v>160</v>
       </c>
       <c r="M21">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1379,13 +1379,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5896656534954408</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L24">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>0.95</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1405,25 +1405,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="10:17">
